--- a/annotations/buenos resultados/time_prediction_19-05-24.xlsx
+++ b/annotations/buenos resultados/time_prediction_19-05-24.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XONI MASTER\1 interships\PEL4VAD\annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XONI MASTER\1 interships\PEL4VAD\annotations\buenos resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAB7BC-4167-436B-8AA1-1EFC116DF422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86C99BE-9568-4BE5-BAFE-6FA836A89863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1270,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="F288" sqref="F288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7106,6 +7119,12 @@
         <v>38</v>
       </c>
     </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C293">
+        <f>AVERAGE(C2:C291)</f>
+        <v>0.72676521334154853</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F291">
     <sortCondition ref="F2:F291"/>
